--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>4.468211064330999</v>
+        <v>11.53292809133956</v>
       </c>
       <c r="R2">
-        <v>40.21389957897899</v>
+        <v>103.796352822056</v>
       </c>
       <c r="S2">
-        <v>0.2744853441337432</v>
+        <v>0.3506298696693847</v>
       </c>
       <c r="T2">
-        <v>0.2744853441337431</v>
+        <v>0.3506298696693847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
-        <v>1.047055217749</v>
+        <v>1.586276713757111</v>
       </c>
       <c r="R3">
-        <v>9.423496959740998</v>
+        <v>14.276490423814</v>
       </c>
       <c r="S3">
-        <v>0.06432133747332204</v>
+        <v>0.0482267810047217</v>
       </c>
       <c r="T3">
-        <v>0.06432133747332203</v>
+        <v>0.0482267810047217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>1.470833278569</v>
+        <v>6.195695008135778</v>
       </c>
       <c r="R4">
-        <v>13.237499507121</v>
+        <v>55.761255073222</v>
       </c>
       <c r="S4">
-        <v>0.09035432140934925</v>
+        <v>0.188364630040937</v>
       </c>
       <c r="T4">
-        <v>0.09035432140934926</v>
+        <v>0.188364630040937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H5">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I5">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J5">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>2.279849138458</v>
+        <v>3.145698106409556</v>
       </c>
       <c r="R5">
-        <v>20.518642246122</v>
+        <v>28.311282957686</v>
       </c>
       <c r="S5">
-        <v>0.1400527339315287</v>
+        <v>0.09563709305513424</v>
       </c>
       <c r="T5">
-        <v>0.1400527339315287</v>
+        <v>0.09563709305513422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H6">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I6">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J6">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>1.585322397046</v>
+        <v>3.288670889196666</v>
       </c>
       <c r="R6">
-        <v>14.267901573414</v>
+        <v>29.59803800277</v>
       </c>
       <c r="S6">
-        <v>0.09738746837404696</v>
+        <v>0.09998382337356557</v>
       </c>
       <c r="T6">
-        <v>0.09738746837404696</v>
+        <v>0.09998382337356557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N7">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O7">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P7">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q7">
-        <v>0.9139050094432222</v>
+        <v>1.557032217147111</v>
       </c>
       <c r="R7">
-        <v>8.225145084989</v>
+        <v>14.013289954324</v>
       </c>
       <c r="S7">
-        <v>0.05614182665297474</v>
+        <v>0.04733767513726977</v>
       </c>
       <c r="T7">
-        <v>0.05614182665297473</v>
+        <v>0.04733767513726977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
         <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P8">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q8">
         <v>0.2141593122812222</v>
@@ -948,10 +948,10 @@
         <v>1.927433810531</v>
       </c>
       <c r="S8">
-        <v>0.01315595697799885</v>
+        <v>0.006510978925641441</v>
       </c>
       <c r="T8">
-        <v>0.01315595697799885</v>
+        <v>0.006510978925641439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
         <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N9">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q9">
-        <v>0.300836706679</v>
+        <v>0.8364655236625554</v>
       </c>
       <c r="R9">
-        <v>2.707530360111</v>
+        <v>7.528189712962998</v>
       </c>
       <c r="S9">
-        <v>0.01848061019767669</v>
+        <v>0.0254306447783175</v>
       </c>
       <c r="T9">
-        <v>0.01848061019767669</v>
+        <v>0.02543064477831749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
         <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N10">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q10">
-        <v>0.4663086677002222</v>
+        <v>0.424692953802111</v>
       </c>
       <c r="R10">
-        <v>4.196778009302</v>
+        <v>3.822236584218999</v>
       </c>
       <c r="S10">
-        <v>0.02864566898999136</v>
+        <v>0.01291172838864412</v>
       </c>
       <c r="T10">
-        <v>0.02864566898999136</v>
+        <v>0.01291172838864412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H11">
         <v>2.388977</v>
       </c>
       <c r="I11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N11">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O11">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P11">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q11">
-        <v>0.3242537246748889</v>
+        <v>0.4439953570783332</v>
       </c>
       <c r="R11">
-        <v>2.918283522074</v>
+        <v>3.995958213704999</v>
       </c>
       <c r="S11">
-        <v>0.01991913406117507</v>
+        <v>0.01349856974336739</v>
       </c>
       <c r="T11">
-        <v>0.01991913406117507</v>
+        <v>0.01349856974336739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H12">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I12">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J12">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N12">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O12">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P12">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q12">
-        <v>0.2159376724306666</v>
+        <v>0.2524026315755555</v>
       </c>
       <c r="R12">
-        <v>1.943439051876</v>
+        <v>2.27162368418</v>
       </c>
       <c r="S12">
-        <v>0.0132652028910916</v>
+        <v>0.007673671517990662</v>
       </c>
       <c r="T12">
-        <v>0.0132652028910916</v>
+        <v>0.007673671517990664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H13">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I13">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J13">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O13">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P13">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q13">
-        <v>0.05060160842266666</v>
+        <v>0.03471628486611111</v>
       </c>
       <c r="R13">
-        <v>0.455414475804</v>
+        <v>0.312446563795</v>
       </c>
       <c r="S13">
-        <v>0.003108492347752637</v>
+        <v>0.001055461920997369</v>
       </c>
       <c r="T13">
-        <v>0.003108492347752637</v>
+        <v>0.001055461920997369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H14">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I14">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J14">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N14">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q14">
-        <v>0.071081761836</v>
+        <v>0.1355952028927778</v>
       </c>
       <c r="R14">
-        <v>0.639735856524</v>
+        <v>1.220356826035</v>
       </c>
       <c r="S14">
-        <v>0.004366602557103799</v>
+        <v>0.004122433430742584</v>
       </c>
       <c r="T14">
-        <v>0.0043666025571038</v>
+        <v>0.004122433430742585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H15">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I15">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J15">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N15">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q15">
-        <v>0.1101795124186667</v>
+        <v>0.06884483055055556</v>
       </c>
       <c r="R15">
-        <v>0.9916156117679999</v>
+        <v>0.619603474955</v>
       </c>
       <c r="S15">
-        <v>0.006768404837485853</v>
+        <v>0.002093055100333016</v>
       </c>
       <c r="T15">
-        <v>0.006768404837485854</v>
+        <v>0.002093055100333016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H16">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I16">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J16">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N16">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O16">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P16">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q16">
-        <v>0.07661473989066667</v>
+        <v>0.07197384569166665</v>
       </c>
       <c r="R16">
-        <v>0.689532659016</v>
+        <v>0.647764611225</v>
       </c>
       <c r="S16">
-        <v>0.004706497285341536</v>
+        <v>0.002188184989501854</v>
       </c>
       <c r="T16">
-        <v>0.004706497285341536</v>
+        <v>0.002188184989501855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H17">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I17">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J17">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N17">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O17">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P17">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q17">
-        <v>0.7516372983808889</v>
+        <v>0.9728716422324445</v>
       </c>
       <c r="R17">
-        <v>6.764735685428</v>
+        <v>8.755844780092</v>
       </c>
       <c r="S17">
-        <v>0.04617360718628574</v>
+        <v>0.02957773207457685</v>
       </c>
       <c r="T17">
-        <v>0.04617360718628574</v>
+        <v>0.02957773207457684</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H18">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I18">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J18">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O18">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P18">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q18">
-        <v>0.1761344179568889</v>
+        <v>0.1338119529858889</v>
       </c>
       <c r="R18">
-        <v>1.585209761612</v>
+        <v>1.204307576873</v>
       </c>
       <c r="S18">
-        <v>0.01082006101113575</v>
+        <v>0.004068218171834492</v>
       </c>
       <c r="T18">
-        <v>0.01082006101113575</v>
+        <v>0.00406821817183449</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H19">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I19">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J19">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N19">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q19">
-        <v>0.247421873308</v>
+        <v>0.5226440267032222</v>
       </c>
       <c r="R19">
-        <v>2.226796859772</v>
+        <v>4.703796240329</v>
       </c>
       <c r="S19">
-        <v>0.01519929946535104</v>
+        <v>0.01588968608102612</v>
       </c>
       <c r="T19">
-        <v>0.01519929946535105</v>
+        <v>0.01588968608102611</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H20">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I20">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J20">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N20">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q20">
-        <v>0.3835135857448889</v>
+        <v>0.2653584985974444</v>
       </c>
       <c r="R20">
-        <v>3.451622271704</v>
+        <v>2.388226487377</v>
       </c>
       <c r="S20">
-        <v>0.02355950895057214</v>
+        <v>0.008067562291379778</v>
       </c>
       <c r="T20">
-        <v>0.02355950895057215</v>
+        <v>0.008067562291379777</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H21">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I21">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J21">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N21">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O21">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P21">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q21">
-        <v>0.2666811004275556</v>
+        <v>0.2774191101683333</v>
       </c>
       <c r="R21">
-        <v>2.400129903848</v>
+        <v>2.496771991515</v>
       </c>
       <c r="S21">
-        <v>0.01638240731490216</v>
+        <v>0.008434235059105556</v>
       </c>
       <c r="T21">
-        <v>0.01638240731490216</v>
+        <v>0.008434235059105554</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H22">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I22">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J22">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N22">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O22">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P22">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q22">
-        <v>0.3532837305238889</v>
+        <v>0.416889124652</v>
       </c>
       <c r="R22">
-        <v>3.179553574715</v>
+        <v>3.752002121868</v>
       </c>
       <c r="S22">
-        <v>0.02170246771102815</v>
+        <v>0.01267447245709277</v>
       </c>
       <c r="T22">
-        <v>0.02170246771102815</v>
+        <v>0.01267447245709276</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H23">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I23">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J23">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O23">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P23">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q23">
-        <v>0.08278650405388889</v>
+        <v>0.057340296013</v>
       </c>
       <c r="R23">
-        <v>0.7450785364849999</v>
+        <v>0.516062664117</v>
       </c>
       <c r="S23">
-        <v>0.005085633092908406</v>
+        <v>0.001743288465740091</v>
       </c>
       <c r="T23">
-        <v>0.005085633092908405</v>
+        <v>0.001743288465740091</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H24">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I24">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J24">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N24">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P24">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q24">
-        <v>0.116292954865</v>
+        <v>0.223960285549</v>
       </c>
       <c r="R24">
-        <v>1.046636593785</v>
+        <v>2.015642569941</v>
       </c>
       <c r="S24">
-        <v>0.007143957901019319</v>
+        <v>0.006808953035277538</v>
       </c>
       <c r="T24">
-        <v>0.00714395790101932</v>
+        <v>0.006808953035277537</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H25">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I25">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J25">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N25">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P25">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q25">
-        <v>0.1802586308188889</v>
+        <v>0.113709833237</v>
       </c>
       <c r="R25">
-        <v>1.62232767737</v>
+        <v>1.023388499133</v>
       </c>
       <c r="S25">
-        <v>0.01107341430407746</v>
+        <v>0.003457063435430286</v>
       </c>
       <c r="T25">
-        <v>0.01107341430407746</v>
+        <v>0.003457063435430285</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H26">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I26">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J26">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N26">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O26">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P26">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q26">
-        <v>0.1253451554655556</v>
+        <v>0.118877974215</v>
       </c>
       <c r="R26">
-        <v>1.12810639919</v>
+        <v>1.069901767935</v>
       </c>
       <c r="S26">
-        <v>0.007700040942137521</v>
+        <v>0.003614187851987597</v>
       </c>
       <c r="T26">
-        <v>0.00770004094213752</v>
+        <v>0.003614187851987596</v>
       </c>
     </row>
   </sheetData>
